--- a/mf-intelligence/data/separated_files/nippon/Nippon India Value Fund/Nippon India Value Fund_Oct_2025.xlsx
+++ b/mf-intelligence/data/separated_files/nippon/Nippon India Value Fund/Nippon India Value Fund_Oct_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Industry / Rating</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -2527,29 +2527,29 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BTVL03</t>
+          <t>ADTH01</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>IN9397D01014</t>
+          <t>INE819V01029</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Bharti Airtel Limited- Partly Paid up</t>
+          <t>Aditya Infotech Limited</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Telecom - Services</t>
+          <t>Industrial Manufacturing</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>194089</v>
+        <v>231061</v>
       </c>
       <c r="F66" t="n">
-        <v>3040.7</v>
+        <v>3036.14</v>
       </c>
       <c r="G66" t="n">
         <v>0.0033</v>
@@ -2559,29 +2559,29 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ADTH01</t>
+          <t>PHMI02</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>INE819V01029</t>
+          <t>INE211B01039</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Aditya Infotech Limited</t>
+          <t>The Phoenix Mills Limited</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Industrial Manufacturing</t>
+          <t>Realty</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>231061</v>
+        <v>179912</v>
       </c>
       <c r="F67" t="n">
-        <v>3036.14</v>
+        <v>3027.2</v>
       </c>
       <c r="G67" t="n">
         <v>0.0033</v>
@@ -2591,209 +2591,209 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PHMI02</t>
+          <t>SBCP01</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>INE211B01039</t>
+          <t>INE018E01016</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>The Phoenix Mills Limited</t>
+          <t>SBI Cards and Payment Services Limited</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Realty</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>179912</v>
+        <v>337369</v>
       </c>
       <c r="F68" t="n">
-        <v>3027.2</v>
+        <v>2964.29</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0033</v>
+        <v>0.0032</v>
       </c>
       <c r="H68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SBCP01</t>
+          <t>GRPA01</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>INE018E01016</t>
+          <t>INE08ZM01014</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>SBI Cards and Payment Services Limited</t>
+          <t>Greenpanel Industries Limited</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Consumer Durables</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>337369</v>
+        <v>833278</v>
       </c>
       <c r="F69" t="n">
-        <v>2964.29</v>
+        <v>2374.01</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0032</v>
+        <v>0.0026</v>
       </c>
       <c r="H69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>GRPA01</t>
+          <t>INOW01</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>INE08ZM01014</t>
+          <t>INE066P01011</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Greenpanel Industries Limited</t>
+          <t>Inox Wind Limited</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Consumer Durables</t>
+          <t>Electrical Equipment</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>833278</v>
+        <v>1450000</v>
       </c>
       <c r="F70" t="n">
-        <v>2374.01</v>
+        <v>2249.39</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0026</v>
+        <v>0.0025</v>
       </c>
       <c r="H70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>INOW01</t>
+          <t>FMPL01</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>INE066P01011</t>
+          <t>INE139R01012</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Inox Wind Limited</t>
+          <t>Fusion Finance Limited</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Electrical Equipment</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>1450000</v>
+        <v>1226719</v>
       </c>
       <c r="F71" t="n">
-        <v>2249.39</v>
+        <v>2233.49</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0025</v>
+        <v>0.0024</v>
       </c>
       <c r="H71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>FMPL01</t>
+          <t>TLSL01</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>INE139R01012</t>
+          <t>INE985S01024</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Fusion Finance Limited</t>
+          <t>TeamLease Services Limited</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Commercial Services &amp; Supplies</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1226719</v>
+        <v>105572</v>
       </c>
       <c r="F72" t="n">
-        <v>2233.49</v>
+        <v>1772.77</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0024</v>
+        <v>0.0019</v>
       </c>
       <c r="H72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>TLSL01</t>
+          <t>FINO02</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>INE985S01024</t>
+          <t>INE235A01022</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>TeamLease Services Limited</t>
+          <t>Finolex Cables Limited</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Commercial Services &amp; Supplies</t>
+          <t>Industrial Products</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>105572</v>
+        <v>182036</v>
       </c>
       <c r="F73" t="n">
-        <v>1772.77</v>
+        <v>1430.62</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0019</v>
+        <v>0.0016</v>
       </c>
       <c r="H73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>FINO02</t>
+          <t>IINL01</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>INE235A01022</t>
+          <t>INE549I01011</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Finolex Cables Limited</t>
+          <t>Innoventive Industries Limited**</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2802,81 +2802,17 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>182036</v>
+        <v>3000000</v>
       </c>
       <c r="F74" t="n">
-        <v>1430.62</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0.0016</v>
+        <v>0</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>$0.00%</t>
+        </is>
       </c>
       <c r="H74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>FMPL02</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>IN9139R01028</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Fusion Finance Limited- Partly Paid up</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>741423</v>
-      </c>
-      <c r="F75" t="n">
-        <v>754.1799999999999</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0.0008</v>
-      </c>
-      <c r="H75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>IINL01</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>INE549I01011</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Innoventive Industries Limited**</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Industrial Products</t>
-        </is>
-      </c>
-      <c r="E76" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0</v>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>$0.00%</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
